--- a/matches_final.xlsx
+++ b/matches_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260D5A9-D1E8-465D-B32F-AE5E77A6997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6337A648-225F-4EBC-9C20-3E8E5AE11C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/matches_final.xlsx
+++ b/matches_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6337A648-225F-4EBC-9C20-3E8E5AE11C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1FE9AB-C2BB-419B-A3C5-398DEF0F02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>match_id</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>ScoreB</t>
+  </si>
+  <si>
+    <t>سموحه</t>
+  </si>
+  <si>
+    <t>أصحاب الجياد</t>
+  </si>
+  <si>
+    <t>سبورتنج</t>
+  </si>
+  <si>
+    <t>المؤسسة</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -641,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
